--- a/_data/courses.xlsx
+++ b/_data/courses.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\website_asurobotics\_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D1247A-CEE6-4945-AEED-7CD9F022B020}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="110" windowWidth="9540" windowHeight="2090"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
   <si>
     <t>Course-Number</t>
   </si>
@@ -136,9 +142,6 @@
     <t>Robotics Systems I</t>
   </si>
   <si>
-    <t>Sodeman</t>
-  </si>
-  <si>
     <t xml:space="preserve">Analysis and design of robotic systems focusing on kinematics, dynamics, coordinate transformations and modeling. </t>
   </si>
   <si>
@@ -190,9 +193,6 @@
     <t>Mechatronics Device Innovation</t>
   </si>
   <si>
-    <t>Design new mechatronic healthcare and assistive devices with local physicians</t>
-  </si>
-  <si>
     <t>http://faculty.engineering.asu.edu/zhang/wp-content/uploads/2015/09/EGR598-Zhang-Poster.pdf</t>
   </si>
   <si>
@@ -305,12 +305,33 @@
   </si>
   <si>
     <t>Studying ground locomotion, flapping flight, swimming, and water surface locomotion of animals and robots</t>
+  </si>
+  <si>
+    <t>Sugar, McDaniel</t>
+  </si>
+  <si>
+    <t>Design new haptic robotic and mechatronic healthcare and assistive devices</t>
+  </si>
+  <si>
+    <t>EGR 455</t>
+  </si>
+  <si>
+    <t>Redkar</t>
+  </si>
+  <si>
+    <t>Graduate Robotics I</t>
+  </si>
+  <si>
+    <t>Graduate Robotics II</t>
+  </si>
+  <si>
+    <t>EGR 555</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -842,6 +863,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -889,7 +913,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -922,9 +946,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -957,6 +998,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1132,16 +1190,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1190,7 +1248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1210,7 +1268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1233,7 +1291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1256,7 +1314,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1276,7 +1334,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1296,7 +1354,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1310,18 +1368,18 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
@@ -1330,21 +1388,15 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
@@ -1353,41 +1405,41 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -1396,21 +1448,21 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
         <v>55</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
       </c>
       <c r="D13" t="s">
         <v>32</v>
@@ -1419,21 +1471,21 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>32</v>
@@ -1442,18 +1494,21 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
@@ -1462,173 +1517,224 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" t="s">
         <v>69</v>
       </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
       </c>
       <c r="F23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>85</v>
       </c>
-      <c r="I23" t="s">
-        <v>96</v>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I26">
+    <sortCondition ref="A2:A26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_data/courses.xlsx
+++ b/_data/courses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\website_asurobotics\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D1247A-CEE6-4945-AEED-7CD9F022B020}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D757110-8308-4E9A-8856-EDE8742CFAD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="101">
   <si>
     <t>Course-Number</t>
   </si>
@@ -226,9 +226,6 @@
     <t>SEMTE</t>
   </si>
   <si>
-    <t>Artemiadis, Peet, Berman</t>
-  </si>
-  <si>
     <t>System dynamics, linear systems, feedback control, stability, root locus, Bode plots</t>
   </si>
   <si>
@@ -250,9 +247,6 @@
     <t>Digital Control: Design and Implementation</t>
   </si>
   <si>
-    <t>Artemiadis</t>
-  </si>
-  <si>
     <t>Digital control, digital systems, microprocessor control, estimation, filtering</t>
   </si>
   <si>
@@ -326,6 +320,9 @@
   </si>
   <si>
     <t>EGR 555</t>
+  </si>
+  <si>
+    <t>various</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1191,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1365,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
@@ -1376,7 +1373,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -1388,7 +1385,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1405,7 +1402,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s">
         <v>43</v>
@@ -1456,7 +1453,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -1471,10 +1468,10 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1528,13 +1525,13 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1542,13 +1539,13 @@
         <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1585,18 +1582,18 @@
         <v>13</v>
       </c>
       <c r="F19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" t="s">
         <v>68</v>
-      </c>
-      <c r="I19" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
         <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>67</v>
@@ -1605,18 +1602,18 @@
         <v>17</v>
       </c>
       <c r="F20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" t="s">
         <v>72</v>
-      </c>
-      <c r="I20" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
         <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
       </c>
       <c r="D21" t="s">
         <v>67</v>
@@ -1625,18 +1622,18 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
         <v>67</v>
@@ -1645,15 +1642,15 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
         <v>67</v>
@@ -1662,41 +1659,41 @@
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
         <v>85</v>
-      </c>
-      <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>87</v>
       </c>
       <c r="D24" t="s">
         <v>67</v>
       </c>
       <c r="E24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" t="s">
         <v>88</v>
-      </c>
-      <c r="F24" t="s">
-        <v>89</v>
-      </c>
-      <c r="I24" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
         <v>67</v>
@@ -1705,18 +1702,18 @@
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
         <v>67</v>
@@ -1725,10 +1722,10 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/_data/courses.xlsx
+++ b/_data/courses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
   <si>
     <t xml:space="preserve">Course-Number</t>
   </si>
@@ -160,10 +160,37 @@
     <t xml:space="preserve">Design of robotic systems focusing on dynamics, modeling and controlling a robot. </t>
   </si>
   <si>
-    <t xml:space="preserve">EGR 494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://idealab.asu.edu/2016/070/foldable-robotics.html</t>
+    <t xml:space="preserve">EGR 550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechatronic Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This course presents systems approach to the area of mechatronic systems, including the sensors, actuators, microcontrollers, and applications which are found at the heart of everyday products and devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGR 555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://biomech.asu.edu/egr-598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechatronics Device Innovation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar, McDaniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design new haptic robotic and mechatronic healthcare and assistive devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGR 557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://foldable-robotics.github.io</t>
   </si>
   <si>
     <t xml:space="preserve">Foldable Robotics</t>
@@ -173,39 +200,6 @@
   </si>
   <si>
     <t xml:space="preserve">Design, simulate, analyze, and prototype low-cost robotic devices using digital fabrication techniques like laser cutting and the python programming language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGR 550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mechatronic Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sugar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This course presents systems approach to the area of mechatronic systems, including the sensors, actuators, microcontrollers, and applications which are found at the heart of everyday products and devices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGR 555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://biomech.asu.edu/egr-598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mechatronics Device Innovation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sugar, McDaniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design new haptic robotic and mechatronic healthcare and assistive devices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGR 557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://idealab.asu.edu/teaching/</t>
   </si>
   <si>
     <t xml:space="preserve">EGR 598</t>
@@ -401,8 +395,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -423,550 +421,531 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="I11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>72</v>
+      <c r="F18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="I20" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="I24" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" display="https://foldable-robotics.github.io"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
